--- a/InputData/trans/VSCSP/Vehicle Survival Curve Shape Parameter.xlsx
+++ b/InputData/trans/VSCSP/Vehicle Survival Curve Shape Parameter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\trans\VSCSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BA4C962-2CD9-4E42-9B99-FFC7D9A50687}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C33987-2EE0-4E90-A025-20BEB0C1FE72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
     <sheet name="Rail" sheetId="25" r:id="rId5"/>
     <sheet name="VSCSP" sheetId="2" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
   <si>
     <t>Source:</t>
   </si>
@@ -269,15 +266,21 @@
   <si>
     <t>avoid this issue</t>
   </si>
+  <si>
+    <t xml:space="preserve">Freight rail locomotives are almost entirely sold off into a secondary used freight locmotive market, </t>
+  </si>
+  <si>
+    <t>therefore we assume an average lifetime of 50 years.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="167" formatCode="###0;###0"/>
-    <numFmt numFmtId="168" formatCode="###0.000;###0.000"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="###0;###0"/>
+    <numFmt numFmtId="165" formatCode="###0.000;###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -493,28 +496,28 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="6" fillId="3" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="9"/>
-    <xf numFmtId="168" fontId="7" fillId="4" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="10"/>
-    <xf numFmtId="168" fontId="8" fillId="5" borderId="0" xfId="11" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="0" xfId="11" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="11"/>
@@ -1323,7 +1326,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'LDVs, HDVs, Motorbikes'!$S$9:$S$39</c15:sqref>
@@ -1455,7 +1458,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'LDVs, HDVs, Motorbikes'!$R$8:$R$38</c15:sqref>
@@ -1587,7 +1590,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'LDVs, HDVs, Motorbikes'!$X$9:$X$37</c15:sqref>
@@ -5512,184 +5515,184 @@
                   <c:v>0.99966464986953363</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99949979889292051</c:v>
+                  <c:v>0.9996064858736734</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.99953823842347578</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99945816118262265</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99936420603160481</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.99925397116616332</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.99888746396713979</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>0.99912464036357063</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9989729119492885</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99879491576622104</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99858611618753934</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.99834119891982553</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.99752737684336534</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>0.99805393901491435</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.997717047146497</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99732199081378703</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99685878671517059</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.99631576010056411</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.99451370110054949</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="16">
+                  <c:v>0.99567926648008809</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99493337066653376</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99405947780165971</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99303591082223786</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.99183742884684012</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.98787156501572571</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="21">
+                  <c:v>0.99043468132790835</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.98879359367815711</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.98687468166289716</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.98463229443472444</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0.98201379003790845</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.97340300642313404</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="26">
+                  <c:v>0.97895865297953166</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.97539757159726048</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.97125150407345995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.96643077671851751</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0.96083427720323566</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.94267582410113127</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="31">
+                  <c:v>0.95434882921555619</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.94684886360193621</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.93819653373641143</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.92824245773624858</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>0.91682730350607766</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.88079707797788231</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="36">
+                  <c:v>0.9037844582893072</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.88894403328859239</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.8721384336809187</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.85320966019861766</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>0.83201838513392445</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.76852478349901776</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="41">
+                  <c:v>0.80845465143853257</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78244977642311242</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.75398871644894816</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.72312180512438984</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>0.6899744811276125</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.59868766011245211</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="46">
+                  <c:v>0.65475346060631912</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.61774787476924908</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.5793242521487495</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.53991488455556569</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.40131233988754794</c:v>
-                </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="51">
+                  <c:v>0.46008511544443426</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.4206757478512505</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.38225212523075086</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.34524653939368066</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>0.31002551887238738</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.23147521650098246</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="56">
+                  <c:v>0.27687819487561</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.24601128355105206</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.21755022357688761</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.19154534856146757</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>0.16798161486607557</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.11920292202211755</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>8.3172696493922352E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5.7324175898868707E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.9165722796764384E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.6596993576865863E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.7986209962091559E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.2128434984274237E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.1625711531598897E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5.4862988994504088E-3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.684239899435989E-3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2.4726231566347743E-3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.6588010801744215E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.1125360328603205E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7.4602883383669764E-4</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5.0020110707956432E-4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3.3535013046647811E-4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.2481677023329571E-4</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.5071035805975741E-4</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.0102919390777289E-4</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>6.7724149619770109E-5</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4.5397868702434395E-5</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.043155690056538E-5</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2.039908727992137E-5</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.3674009084599736E-5</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>9.166003719853315E-6</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>6.1441746022147182E-6</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>4.1185717448326358E-6</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2.7607649501930464E-6</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.8505977728634534E-6</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.2404935411305767E-6</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>8.3152802766413209E-7</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5.5739005858560998E-7</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>3.7362979838924758E-7</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2.5045157450675526E-7</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.6788272481495197E-7</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.1253516205509499E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11474,1944 +11477,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="Past Sales Data"/>
-      <sheetName val="Retirements of Start Year Fleet"/>
-      <sheetName val="RoSYF-passenger"/>
-      <sheetName val="RoSYF-freight"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="Q8">
-            <v>1</v>
-          </cell>
-          <cell r="R8">
-            <v>0</v>
-          </cell>
-          <cell r="U8">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="Q9">
-            <v>0.99585496409708563</v>
-          </cell>
-          <cell r="R9">
-            <v>4.1450359029143735E-3</v>
-          </cell>
-          <cell r="S9">
-            <v>0.99970374759511627</v>
-          </cell>
-          <cell r="T9">
-            <v>2.962524048837345E-4</v>
-          </cell>
-          <cell r="U9">
-            <v>7.2538150285879585E-11</v>
-          </cell>
-          <cell r="X9">
-            <v>3.5936025814201633E-3</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="Q10">
-            <v>0.99043987031688163</v>
-          </cell>
-          <cell r="R10">
-            <v>5.4150937802039945E-3</v>
-          </cell>
-          <cell r="S10">
-            <v>0.99763243673907498</v>
-          </cell>
-          <cell r="T10">
-            <v>2.0713108560412863E-3</v>
-          </cell>
-          <cell r="U10">
-            <v>3.7139532670770774E-8</v>
-          </cell>
-          <cell r="X10">
-            <v>1.6265231121381785E-3</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="Q11">
-            <v>0.98338258686653468</v>
-          </cell>
-          <cell r="R11">
-            <v>7.0572834503469517E-3</v>
-          </cell>
-          <cell r="S11">
-            <v>0.99203191483706066</v>
-          </cell>
-          <cell r="T11">
-            <v>5.6005219020143215E-3</v>
-          </cell>
-          <cell r="U11">
-            <v>1.4277678005306647E-6</v>
-          </cell>
-          <cell r="X11">
-            <v>2.3571155743024041E-3</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="Q12">
-            <v>0.97421398919031454</v>
-          </cell>
-          <cell r="R12">
-            <v>9.168597676220136E-3</v>
-          </cell>
-          <cell r="S12">
-            <v>0.98121570289215621</v>
-          </cell>
-          <cell r="T12">
-            <v>1.0816211944904452E-2</v>
-          </cell>
-          <cell r="U12">
-            <v>1.9015296234433038E-5</v>
-          </cell>
-          <cell r="X12">
-            <v>3.4097013627324424E-3</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="Q13">
-            <v>0.96235115661133974</v>
-          </cell>
-          <cell r="R13">
-            <v>1.1862832578974802E-2</v>
-          </cell>
-          <cell r="S13">
-            <v>0.96364044430128626</v>
-          </cell>
-          <cell r="T13">
-            <v>1.7575258590869947E-2</v>
-          </cell>
-          <cell r="U13">
-            <v>1.4166603907851276E-4</v>
-          </cell>
-          <cell r="X13">
-            <v>4.9194490812215497E-3</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="Q14">
-            <v>0.94708384347608565</v>
-          </cell>
-          <cell r="R14">
-            <v>1.526731313525409E-2</v>
-          </cell>
-          <cell r="S14">
-            <v>0.93800499953072947</v>
-          </cell>
-          <cell r="T14">
-            <v>2.5635444770556792E-2</v>
-          </cell>
-          <cell r="U14">
-            <v>7.3069686540754356E-4</v>
-          </cell>
-          <cell r="X14">
-            <v>7.0709781982108977E-3</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="Q15">
-            <v>0.92756976559496673</v>
-          </cell>
-          <cell r="R15">
-            <v>1.9514077881118919E-2</v>
-          </cell>
-          <cell r="S15">
-            <v>0.90336406900221422</v>
-          </cell>
-          <cell r="T15">
-            <v>3.4640930528515246E-2</v>
-          </cell>
-          <cell r="U15">
-            <v>2.9211842982661989E-3</v>
-          </cell>
-          <cell r="X15">
-            <v>1.010860847867856E-2</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="Q16">
-            <v>0.90284743788604749</v>
-          </cell>
-          <cell r="R16">
-            <v>2.4722327708919245E-2</v>
-          </cell>
-          <cell r="S16">
-            <v>0.8592428334969261</v>
-          </cell>
-          <cell r="T16">
-            <v>4.4121235505288126E-2</v>
-          </cell>
-          <cell r="U16">
-            <v>9.6603699819465295E-3</v>
-          </cell>
-          <cell r="X16">
-            <v>1.433989478886244E-2</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="Q17">
-            <v>0.87187890492930498</v>
-          </cell>
-          <cell r="R17">
-            <v>3.0968532956742512E-2</v>
-          </cell>
-          <cell r="S17">
-            <v>0.80573530187347964</v>
-          </cell>
-          <cell r="T17">
-            <v>5.3507531623446458E-2</v>
-          </cell>
-          <cell r="U17">
-            <v>2.740089026520931E-2</v>
-          </cell>
-          <cell r="X17">
-            <v>2.0120817962062443E-2</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="Q18">
-            <v>0.83363737139977978</v>
-          </cell>
-          <cell r="R18">
-            <v>3.8241533529525196E-2</v>
-          </cell>
-          <cell r="S18">
-            <v>0.74356707920590637</v>
-          </cell>
-          <cell r="T18">
-            <v>6.216822266757327E-2</v>
-          </cell>
-          <cell r="U18">
-            <v>6.7462675138008535E-2</v>
-          </cell>
-          <cell r="X18">
-            <v>2.780277375948037E-2</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="Q19">
-            <v>0.78725361021097784</v>
-          </cell>
-          <cell r="R19">
-            <v>4.6383761188801942E-2</v>
-          </cell>
-          <cell r="S19">
-            <v>0.67410434172515699</v>
-          </cell>
-          <cell r="T19">
-            <v>6.9462737480749381E-2</v>
-          </cell>
-          <cell r="U19">
-            <v>0.14170663532509364</v>
-          </cell>
-          <cell r="X19">
-            <v>3.7614775298719927E-2</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="Q20">
-            <v>0.73222561914572826</v>
-          </cell>
-          <cell r="R20">
-            <v>5.5027991065249582E-2</v>
-          </cell>
-          <cell r="S20">
-            <v>0.59929578784553839</v>
-          </cell>
-          <cell r="T20">
-            <v>7.48085538796186E-2</v>
-          </cell>
-          <cell r="U20">
-            <v>0.23885807290217517</v>
-          </cell>
-          <cell r="X20">
-            <v>4.9461283608526974E-2</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="Q21">
-            <v>0.66867365840463178</v>
-          </cell>
-          <cell r="R21">
-            <v>6.355196074109648E-2</v>
-          </cell>
-          <cell r="S21">
-            <v>0.52154330798126458</v>
-          </cell>
-          <cell r="T21">
-            <v>7.7752479864273805E-2</v>
-          </cell>
-          <cell r="U21">
-            <v>0.28298418551649412</v>
-          </cell>
-          <cell r="X21">
-            <v>6.2659489326015394E-2</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="Q22">
-            <v>0.59758713413767695</v>
-          </cell>
-          <cell r="R22">
-            <v>7.1086524266954831E-2</v>
-          </cell>
-          <cell r="S22">
-            <v>0.4435090653193372</v>
-          </cell>
-          <cell r="T22">
-            <v>7.8034242661927378E-2</v>
-          </cell>
-          <cell r="U22">
-            <v>0.18385786762125486</v>
-          </cell>
-          <cell r="X22">
-            <v>7.5736287692235282E-2</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="Q23">
-            <v>0.52097165260597911</v>
-          </cell>
-          <cell r="R23">
-            <v>7.6615481531697838E-2</v>
-          </cell>
-          <cell r="S23">
-            <v>0.36787944117144233</v>
-          </cell>
-          <cell r="T23">
-            <v>7.5629624147894869E-2</v>
-          </cell>
-          <cell r="U23">
-            <v>4.2537385049648498E-2</v>
-          </cell>
-          <cell r="X23">
-            <v>8.6512099221323302E-2</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="Q24">
-            <v>0.44179004759020402</v>
-          </cell>
-          <cell r="R24">
-            <v>7.9181605015775092E-2</v>
-          </cell>
-          <cell r="S24">
-            <v>0.29711689563161658</v>
-          </cell>
-          <cell r="T24">
-            <v>7.076254553982575E-2</v>
-          </cell>
-          <cell r="U24">
-            <v>1.7134199222364251E-3</v>
-          </cell>
-          <cell r="X24">
-            <v>9.2666599954069673E-2</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="Q25">
-            <v>0.36363162830064061</v>
-          </cell>
-          <cell r="R25">
-            <v>7.8158419289563408E-2</v>
-          </cell>
-          <cell r="S25">
-            <v>0.23323617697687712</v>
-          </cell>
-          <cell r="T25">
-            <v>6.388071865473946E-2</v>
-          </cell>
-          <cell r="U25">
-            <v>3.833872235998762E-6</v>
-          </cell>
-          <cell r="X25">
-            <v>9.2666599954069728E-2</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="Q26">
-            <v>0.29014698381858961</v>
-          </cell>
-          <cell r="R26">
-            <v>7.3484644482050998E-2</v>
-          </cell>
-          <cell r="S26">
-            <v>0.17763933359513495</v>
-          </cell>
-          <cell r="T26">
-            <v>5.5596843381742173E-2</v>
-          </cell>
-          <cell r="U26">
-            <v>8.1284035147309221E-11</v>
-          </cell>
-          <cell r="X26">
-            <v>8.6512099221323246E-2</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="Q27">
-            <v>0.22440759886136846</v>
-          </cell>
-          <cell r="R27">
-            <v>6.5739384957221147E-2</v>
-          </cell>
-          <cell r="S27">
-            <v>0.13103428187738791</v>
-          </cell>
-          <cell r="T27">
-            <v>4.6605051717747037E-2</v>
-          </cell>
-          <cell r="U27">
-            <v>1.13422935999052E-18</v>
-          </cell>
-          <cell r="X27">
-            <v>7.573628769223531E-2</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="Q28">
-            <v>0.16840886050929973</v>
-          </cell>
-          <cell r="R28">
-            <v>5.5998738352068728E-2</v>
-          </cell>
-          <cell r="S28">
-            <v>9.3446110197625359E-2</v>
-          </cell>
-          <cell r="T28">
-            <v>3.7588171679762555E-2</v>
-          </cell>
-          <cell r="U28">
-            <v>2.0457285186641321E-31</v>
-          </cell>
-          <cell r="X28">
-            <v>6.2659489326015366E-2</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="Q29">
-            <v>0.12287832331111681</v>
-          </cell>
-          <cell r="R29">
-            <v>4.5530537198182924E-2</v>
-          </cell>
-          <cell r="S29">
-            <v>6.4312581380308834E-2</v>
-          </cell>
-          <cell r="T29">
-            <v>2.9133528817316526E-2</v>
-          </cell>
-          <cell r="U29">
-            <v>1.6369944122513668E-51</v>
-          </cell>
-          <cell r="X29">
-            <v>4.9461283608527085E-2</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="Q30">
-            <v>8.740986538343036E-2</v>
-          </cell>
-          <cell r="R30">
-            <v>3.546845792768645E-2</v>
-          </cell>
-          <cell r="S30">
-            <v>4.2639980221934611E-2</v>
-          </cell>
-          <cell r="T30">
-            <v>2.1672601158374223E-2</v>
-          </cell>
-          <cell r="U30">
-            <v>1.8657891869850182E-82</v>
-          </cell>
-          <cell r="X30">
-            <v>3.7614775298719774E-2</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="Q31">
-            <v>6.0812552296961031E-2</v>
-          </cell>
-          <cell r="R31">
-            <v>2.6597313086469329E-2</v>
-          </cell>
-          <cell r="S31">
-            <v>2.7186437889299666E-2</v>
-          </cell>
-          <cell r="T31">
-            <v>1.5453542332634945E-2</v>
-          </cell>
-          <cell r="U31">
-            <v>4.0786531852197607E-129</v>
-          </cell>
-          <cell r="X31">
-            <v>2.7802773759480384E-2</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="Q32">
-            <v>4.1514309641353997E-2</v>
-          </cell>
-          <cell r="R32">
-            <v>1.9298242655607034E-2</v>
-          </cell>
-          <cell r="S32">
-            <v>1.6639098861723611E-2</v>
-          </cell>
-          <cell r="T32">
-            <v>1.0547339027576055E-2</v>
-          </cell>
-          <cell r="U32">
-            <v>3.4939283015877603E-198</v>
-          </cell>
-          <cell r="X32">
-            <v>2.0120817962062325E-2</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="Q33">
-            <v>2.7896302731826108E-2</v>
-          </cell>
-          <cell r="R33">
-            <v>1.3618006909527889E-2</v>
-          </cell>
-          <cell r="S33">
-            <v>9.7583726452178006E-3</v>
-          </cell>
-          <cell r="T33">
-            <v>6.88072621650581E-3</v>
-          </cell>
-          <cell r="U33">
-            <v>1.0157454503789799E-298</v>
-          </cell>
-          <cell r="X33">
-            <v>1.4339894788862655E-2</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="Q34">
-            <v>1.8505097102620445E-2</v>
-          </cell>
-          <cell r="R34">
-            <v>9.391205629205663E-3</v>
-          </cell>
-          <cell r="S34">
-            <v>5.4742297193685532E-3</v>
-          </cell>
-          <cell r="T34">
-            <v>4.2841429258492474E-3</v>
-          </cell>
-          <cell r="U34">
-            <v>0</v>
-          </cell>
-          <cell r="X34">
-            <v>1.0108608478678512E-2</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="Q35">
-            <v>1.2148605524763807E-2</v>
-          </cell>
-          <cell r="R35">
-            <v>6.3564915778566381E-3</v>
-          </cell>
-          <cell r="S35">
-            <v>2.9322066985015835E-3</v>
-          </cell>
-          <cell r="T35">
-            <v>2.5420230208669696E-3</v>
-          </cell>
-          <cell r="U35">
-            <v>0</v>
-          </cell>
-          <cell r="X35">
-            <v>7.0709781982109012E-3</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="Q36">
-            <v>7.9100318282942506E-3</v>
-          </cell>
-          <cell r="R36">
-            <v>4.2385736964695563E-3</v>
-          </cell>
-          <cell r="S36">
-            <v>1.4969938282535006E-3</v>
-          </cell>
-          <cell r="T36">
-            <v>1.435212870248083E-3</v>
-          </cell>
-          <cell r="U36">
-            <v>0</v>
-          </cell>
-          <cell r="X36">
-            <v>4.9194490812215341E-3</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="Q37">
-            <v>5.1169534850822075E-3</v>
-          </cell>
-          <cell r="R37">
-            <v>2.793078343212043E-3</v>
-          </cell>
-          <cell r="S37">
-            <v>7.2715538381685064E-4</v>
-          </cell>
-          <cell r="T37">
-            <v>7.6983844443664993E-4</v>
-          </cell>
-          <cell r="U37">
-            <v>0</v>
-          </cell>
-          <cell r="X37">
-            <v>3.4097013627323687E-3</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="Q38">
-            <v>3.2934057205075318E-3</v>
-          </cell>
-          <cell r="R38">
-            <v>1.8235477645746757E-3</v>
-          </cell>
-          <cell r="S38">
-            <v>3.3546262790251185E-4</v>
-          </cell>
-          <cell r="T38">
-            <v>3.9169275591433879E-4</v>
-          </cell>
-          <cell r="U38">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="H43" t="str">
-            <v>Motorcycles</v>
-          </cell>
-          <cell r="I43" t="str">
-            <v>Passenger Cars</v>
-          </cell>
-          <cell r="J43" t="str">
-            <v>Light-duty Trucks (Passenger and Light Commercial)</v>
-          </cell>
-          <cell r="K43" t="str">
-            <v>Heavy-duty Vehicles (Buses, Single-Unit Trucks, and Combination Trucks)</v>
-          </cell>
-          <cell r="M43" t="str">
-            <v>Motorcycles</v>
-          </cell>
-          <cell r="N43" t="str">
-            <v>Passenger Cars</v>
-          </cell>
-          <cell r="O43" t="str">
-            <v>Light-duty Trucks (Passenger and Light Commercial)</v>
-          </cell>
-          <cell r="P43" t="str">
-            <v>Heavy-duty Vehicles (Buses, Single-Unit Trucks, and Combination Trucks)</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="H44">
-            <v>1</v>
-          </cell>
-          <cell r="I44">
-            <v>1</v>
-          </cell>
-          <cell r="J44">
-            <v>1</v>
-          </cell>
-          <cell r="K44">
-            <v>1</v>
-          </cell>
-          <cell r="M44">
-            <v>0</v>
-          </cell>
-          <cell r="N44">
-            <v>0</v>
-          </cell>
-          <cell r="O44">
-            <v>0</v>
-          </cell>
-          <cell r="P44">
-            <v>0</v>
-          </cell>
-          <cell r="X44">
-            <v>0</v>
-          </cell>
-          <cell r="Y44">
-            <v>0</v>
-          </cell>
-          <cell r="Z44">
-            <v>0</v>
-          </cell>
-          <cell r="AA44">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="H45">
-            <v>0.97899999999999998</v>
-          </cell>
-          <cell r="I45">
-            <v>0.997</v>
-          </cell>
-          <cell r="J45">
-            <v>0.99099999999999999</v>
-          </cell>
-          <cell r="K45">
-            <v>1</v>
-          </cell>
-          <cell r="M45">
-            <v>2.1000000000000019E-2</v>
-          </cell>
-          <cell r="N45">
-            <v>3.0000000000000027E-3</v>
-          </cell>
-          <cell r="O45">
-            <v>9.000000000000008E-3</v>
-          </cell>
-          <cell r="P45">
-            <v>0</v>
-          </cell>
-          <cell r="X45">
-            <v>5.8713316425842238E-2</v>
-          </cell>
-          <cell r="Y45">
-            <v>1.0928961023070785E-3</v>
-          </cell>
-          <cell r="Z45">
-            <v>3.8025175469126511E-3</v>
-          </cell>
-          <cell r="AA45">
-            <v>2.4468605471938392E-3</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="H46">
-            <v>0.92025999999999997</v>
-          </cell>
-          <cell r="I46">
-            <v>0.99400900000000003</v>
-          </cell>
-          <cell r="J46">
-            <v>0.98208099999999998</v>
-          </cell>
-          <cell r="K46">
-            <v>1</v>
-          </cell>
-          <cell r="M46">
-            <v>5.8740000000000014E-2</v>
-          </cell>
-          <cell r="N46">
-            <v>2.9909999999999659E-3</v>
-          </cell>
-          <cell r="O46">
-            <v>8.9190000000000103E-3</v>
-          </cell>
-          <cell r="P46">
-            <v>0</v>
-          </cell>
-          <cell r="X46">
-            <v>5.5156056411537216E-2</v>
-          </cell>
-          <cell r="Y46">
-            <v>4.3604466205875454E-3</v>
-          </cell>
-          <cell r="Z46">
-            <v>8.6816873677031305E-3</v>
-          </cell>
-          <cell r="AA46">
-            <v>5.5989539921035445E-3</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="H47">
-            <v>0.86504439999999994</v>
-          </cell>
-          <cell r="I47">
-            <v>0.98705093700000002</v>
-          </cell>
-          <cell r="J47">
-            <v>0.96833186599999999</v>
-          </cell>
-          <cell r="K47">
-            <v>1</v>
-          </cell>
-          <cell r="M47">
-            <v>5.5215600000000031E-2</v>
-          </cell>
-          <cell r="N47">
-            <v>6.9580630000000143E-3</v>
-          </cell>
-          <cell r="O47">
-            <v>1.3749133999999996E-2</v>
-          </cell>
-          <cell r="P47">
-            <v>0</v>
-          </cell>
-          <cell r="X47">
-            <v>5.1814319886275023E-2</v>
-          </cell>
-          <cell r="Y47">
-            <v>9.7433062034479306E-3</v>
-          </cell>
-          <cell r="Z47">
-            <v>1.396169703372388E-2</v>
-          </cell>
-          <cell r="AA47">
-            <v>9.0410062050162946E-3</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="H48">
-            <v>0.81314173599999995</v>
-          </cell>
-          <cell r="I48">
-            <v>0.97718042763000001</v>
-          </cell>
-          <cell r="J48">
-            <v>0.94993356054599998</v>
-          </cell>
-          <cell r="K48">
-            <v>0.99</v>
-          </cell>
-          <cell r="M48">
-            <v>5.1902663999999987E-2</v>
-          </cell>
-          <cell r="N48">
-            <v>9.8705093700000024E-3</v>
-          </cell>
-          <cell r="O48">
-            <v>1.8398305454000008E-2</v>
-          </cell>
-          <cell r="P48">
-            <v>1.0000000000000009E-2</v>
-          </cell>
-          <cell r="X48">
-            <v>4.8675048941962805E-2</v>
-          </cell>
-          <cell r="Y48">
-            <v>1.7089439265046177E-2</v>
-          </cell>
-          <cell r="Z48">
-            <v>1.9382957692016704E-2</v>
-          </cell>
-          <cell r="AA48">
-            <v>1.2628614249616078E-2</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="H49">
-            <v>0.76435323183999992</v>
-          </cell>
-          <cell r="I49">
-            <v>0.96349990164318</v>
-          </cell>
-          <cell r="J49">
-            <v>0.92713515509289601</v>
-          </cell>
-          <cell r="K49">
-            <v>0.97019999999999995</v>
-          </cell>
-          <cell r="M49">
-            <v>4.8788504160000024E-2</v>
-          </cell>
-          <cell r="N49">
-            <v>1.3680525986820014E-2</v>
-          </cell>
-          <cell r="O49">
-            <v>2.2798405453103965E-2</v>
-          </cell>
-          <cell r="P49">
-            <v>1.980000000000004E-2</v>
-          </cell>
-          <cell r="X49">
-            <v>4.5725976809165111E-2</v>
-          </cell>
-          <cell r="Y49">
-            <v>2.6115198629469812E-2</v>
-          </cell>
-          <cell r="Z49">
-            <v>2.4754276093868054E-2</v>
-          </cell>
-          <cell r="AA49">
-            <v>1.626211698770906E-2</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="H50">
-            <v>0.71849203792959992</v>
-          </cell>
-          <cell r="I50">
-            <v>0.94519340351195957</v>
-          </cell>
-          <cell r="J50">
-            <v>0.89932110044010916</v>
-          </cell>
-          <cell r="K50">
-            <v>0.95079599999999997</v>
-          </cell>
-          <cell r="M50">
-            <v>4.58611939104E-2</v>
-          </cell>
-          <cell r="N50">
-            <v>1.8306498131220428E-2</v>
-          </cell>
-          <cell r="O50">
-            <v>2.7814054652786857E-2</v>
-          </cell>
-          <cell r="P50">
-            <v>1.9403999999999977E-2</v>
-          </cell>
-          <cell r="X50">
-            <v>4.2955579924435765E-2</v>
-          </cell>
-          <cell r="Y50">
-            <v>3.6379204851190755E-2</v>
-          </cell>
-          <cell r="Z50">
-            <v>2.9913582102817245E-2</v>
-          </cell>
-          <cell r="AA50">
-            <v>1.9859280626611499E-2</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="H51">
-            <v>0.6753825156538239</v>
-          </cell>
-          <cell r="I51">
-            <v>0.9225087618276725</v>
-          </cell>
-          <cell r="J51">
-            <v>0.86694554082426523</v>
-          </cell>
-          <cell r="K51">
-            <v>0.92227211999999992</v>
-          </cell>
-          <cell r="M51">
-            <v>4.3109522275776024E-2</v>
-          </cell>
-          <cell r="N51">
-            <v>2.2684641684287077E-2</v>
-          </cell>
-          <cell r="O51">
-            <v>3.237555961584393E-2</v>
-          </cell>
-          <cell r="P51">
-            <v>2.8523880000000057E-2</v>
-          </cell>
-          <cell r="X51">
-            <v>4.0353032901743253E-2</v>
-          </cell>
-          <cell r="Y51">
-            <v>4.7276619781317614E-2</v>
-          </cell>
-          <cell r="Z51">
-            <v>3.4718876667780771E-2</v>
-          </cell>
-          <cell r="AA51">
-            <v>2.3347613039009375E-2</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="H52">
-            <v>0.63485956471459448</v>
-          </cell>
-          <cell r="I52">
-            <v>0.89575600773467001</v>
-          </cell>
-          <cell r="J52">
-            <v>0.83053382810964604</v>
-          </cell>
-          <cell r="K52">
-            <v>0.8946039563999999</v>
-          </cell>
-          <cell r="M52">
-            <v>4.0522950939229418E-2</v>
-          </cell>
-          <cell r="N52">
-            <v>2.6752754093002484E-2</v>
-          </cell>
-          <cell r="O52">
-            <v>3.6411712714619182E-2</v>
-          </cell>
-          <cell r="P52">
-            <v>2.7668163600000018E-2</v>
-          </cell>
-          <cell r="X52">
-            <v>3.7908166232039589E-2</v>
-          </cell>
-          <cell r="Y52">
-            <v>5.8060742144202107E-2</v>
-          </cell>
-          <cell r="Z52">
-            <v>3.9047056124444986E-2</v>
-          </cell>
-          <cell r="AA52">
-            <v>2.6661966398815434E-2</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="H53">
-            <v>0.59676799083171883</v>
-          </cell>
-          <cell r="I53">
-            <v>0.86440454746395656</v>
-          </cell>
-          <cell r="J53">
-            <v>0.79066820436038299</v>
-          </cell>
-          <cell r="K53">
-            <v>0.86776583770799987</v>
-          </cell>
-          <cell r="M53">
-            <v>3.8091573882875651E-2</v>
-          </cell>
-          <cell r="N53">
-            <v>3.1351460270713449E-2</v>
-          </cell>
-          <cell r="O53">
-            <v>3.9865623749263057E-2</v>
-          </cell>
-          <cell r="P53">
-            <v>2.6838118692000035E-2</v>
-          </cell>
-          <cell r="X53">
-            <v>3.5611426545682688E-2</v>
-          </cell>
-          <cell r="Y53">
-            <v>6.7895800173789017E-2</v>
-          </cell>
-          <cell r="Z53">
-            <v>4.279522898042562E-2</v>
-          </cell>
-          <cell r="AA53">
-            <v>2.9744041759446949E-2</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="H54">
-            <v>0.56096191138181561</v>
-          </cell>
-          <cell r="I54">
-            <v>0.82896396101793435</v>
-          </cell>
-          <cell r="J54">
-            <v>0.7479721213249223</v>
-          </cell>
-          <cell r="K54">
-            <v>0.83305520419967982</v>
-          </cell>
-          <cell r="M54">
-            <v>3.5806079449903216E-2</v>
-          </cell>
-          <cell r="N54">
-            <v>3.5440586446022215E-2</v>
-          </cell>
-          <cell r="O54">
-            <v>4.2696083035460686E-2</v>
-          </cell>
-          <cell r="P54">
-            <v>3.4710633508320043E-2</v>
-          </cell>
-          <cell r="X54">
-            <v>3.3453839282436892E-2</v>
-          </cell>
-          <cell r="Y54">
-            <v>7.5939295516122607E-2</v>
-          </cell>
-          <cell r="Z54">
-            <v>4.5882626276114738E-2</v>
-          </cell>
-          <cell r="AA54">
-            <v>3.254265440011931E-2</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="H55">
-            <v>0.5273041966989066</v>
-          </cell>
-          <cell r="I55">
-            <v>0.79000265485009136</v>
-          </cell>
-          <cell r="J55">
-            <v>0.70309379404542693</v>
-          </cell>
-          <cell r="K55">
-            <v>0.79973299603169257</v>
-          </cell>
-          <cell r="M55">
-            <v>3.3657714682909012E-2</v>
-          </cell>
-          <cell r="N55">
-            <v>3.8961306167842991E-2</v>
-          </cell>
-          <cell r="O55">
-            <v>4.4878327279495367E-2</v>
-          </cell>
-          <cell r="P55">
-            <v>3.3322208167987255E-2</v>
-          </cell>
-          <cell r="X55">
-            <v>3.1426973623183807E-2</v>
-          </cell>
-          <cell r="Y55">
-            <v>8.1444989375805271E-2</v>
-          </cell>
-          <cell r="Z55">
-            <v>4.8252255515896778E-2</v>
-          </cell>
-          <cell r="AA55">
-            <v>3.5014278256711877E-2</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="H56">
-            <v>0.49566594489697219</v>
-          </cell>
-          <cell r="I56">
-            <v>0.72048242122328332</v>
-          </cell>
-          <cell r="J56">
-            <v>0.65739269743247419</v>
-          </cell>
-          <cell r="K56">
-            <v>0.75974634623010795</v>
-          </cell>
-          <cell r="M56">
-            <v>3.1638251801934414E-2</v>
-          </cell>
-          <cell r="N56">
-            <v>6.9520233626808037E-2</v>
-          </cell>
-          <cell r="O56">
-            <v>4.5701096612952741E-2</v>
-          </cell>
-          <cell r="P56">
-            <v>3.9986649801584617E-2</v>
-          </cell>
-          <cell r="X56">
-            <v>2.9522909546313418E-2</v>
-          </cell>
-          <cell r="Y56">
-            <v>8.3870275769601502E-2</v>
-          </cell>
-          <cell r="Z56">
-            <v>4.9871864859986952E-2</v>
-          </cell>
-          <cell r="AA56">
-            <v>3.7123629775861214E-2</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="H57">
-            <v>0.46592598820315384</v>
-          </cell>
-          <cell r="I57">
-            <v>0.61529198772468396</v>
-          </cell>
-          <cell r="J57">
-            <v>0.61071781591476859</v>
-          </cell>
-          <cell r="K57">
-            <v>0.72175902891860255</v>
-          </cell>
-          <cell r="M57">
-            <v>2.9739956693818348E-2</v>
-          </cell>
-          <cell r="N57">
-            <v>0.10519043349859936</v>
-          </cell>
-          <cell r="O57">
-            <v>4.6674881517705602E-2</v>
-          </cell>
-          <cell r="P57">
-            <v>3.7987317311505397E-2</v>
-          </cell>
-          <cell r="X57">
-            <v>2.7734206880067492E-2</v>
-          </cell>
-          <cell r="Y57">
-            <v>8.296661658349859E-2</v>
-          </cell>
-          <cell r="Z57">
-            <v>5.0733998864037552E-2</v>
-          </cell>
-          <cell r="AA57">
-            <v>3.8844157428097763E-2</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="H58">
-            <v>0.4379704289109646</v>
-          </cell>
-          <cell r="I58">
-            <v>0.51192293378693698</v>
-          </cell>
-          <cell r="J58">
-            <v>0.55758536593018371</v>
-          </cell>
-          <cell r="K58">
-            <v>0.68567107747267242</v>
-          </cell>
-          <cell r="M58">
-            <v>2.7955559292189236E-2</v>
-          </cell>
-          <cell r="N58">
-            <v>0.10336905393774698</v>
-          </cell>
-          <cell r="O58">
-            <v>5.3132449984584884E-2</v>
-          </cell>
-          <cell r="P58">
-            <v>3.6087951445930133E-2</v>
-          </cell>
-          <cell r="X58">
-            <v>2.6053876229906774E-2</v>
-          </cell>
-          <cell r="Y58">
-            <v>7.8831308822451929E-2</v>
-          </cell>
-          <cell r="Z58">
-            <v>5.0855065665336457E-2</v>
-          </cell>
-          <cell r="AA58">
-            <v>4.0158357861298649E-2</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="H59">
-            <v>0.41169220317630673</v>
-          </cell>
-          <cell r="I59">
-            <v>0.41619334516877976</v>
-          </cell>
-          <cell r="J59">
-            <v>0.50628751226460678</v>
-          </cell>
-          <cell r="K59">
-            <v>0.64453081282431202</v>
-          </cell>
-          <cell r="M59">
-            <v>2.6278225734657878E-2</v>
-          </cell>
-          <cell r="N59">
-            <v>9.5729588618157224E-2</v>
-          </cell>
-          <cell r="O59">
-            <v>5.1297853665576931E-2</v>
-          </cell>
-          <cell r="P59">
-            <v>4.1140264648360403E-2</v>
-          </cell>
-          <cell r="X59">
-            <v>2.4475351667299937E-2</v>
-          </cell>
-          <cell r="Y59">
-            <v>7.190456206026212E-2</v>
-          </cell>
-          <cell r="Z59">
-            <v>5.0273438978405333E-2</v>
-          </cell>
-          <cell r="AA59">
-            <v>4.1057873074296244E-2</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="H60">
-            <v>0.38699067098572831</v>
-          </cell>
-          <cell r="I60">
-            <v>0.33253848278985504</v>
-          </cell>
-          <cell r="J60">
-            <v>0.45717762357493991</v>
-          </cell>
-          <cell r="K60">
-            <v>0.60585896405485329</v>
-          </cell>
-          <cell r="M60">
-            <v>2.4701532190578412E-2</v>
-          </cell>
-          <cell r="N60">
-            <v>8.3654862378924721E-2</v>
-          </cell>
-          <cell r="O60">
-            <v>4.910988868966687E-2</v>
-          </cell>
-          <cell r="P60">
-            <v>3.8671848769458728E-2</v>
-          </cell>
-          <cell r="X60">
-            <v>2.2992465073215146E-2</v>
-          </cell>
-          <cell r="Y60">
-            <v>6.2907264697418488E-2</v>
-          </cell>
-          <cell r="Z60">
-            <v>4.9046699529056881E-2</v>
-          </cell>
-          <cell r="AA60">
-            <v>4.1543346559895424E-2</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="H61">
-            <v>0.36377123072658457</v>
-          </cell>
-          <cell r="I61">
-            <v>0.26170778595561595</v>
-          </cell>
-          <cell r="J61">
-            <v>0.41054550597029604</v>
-          </cell>
-          <cell r="K61">
-            <v>0.56344883657101363</v>
-          </cell>
-          <cell r="M61">
-            <v>2.3219440259143742E-2</v>
-          </cell>
-          <cell r="N61">
-            <v>7.0830696834239093E-2</v>
-          </cell>
-          <cell r="O61">
-            <v>4.6632117604643863E-2</v>
-          </cell>
-          <cell r="P61">
-            <v>4.2410127483839655E-2</v>
-          </cell>
-          <cell r="X61">
-            <v>2.1599422036060908E-2</v>
-          </cell>
-          <cell r="Y61">
-            <v>5.2729252205885216E-2</v>
-          </cell>
-          <cell r="Z61">
-            <v>4.7248182767537485E-2</v>
-          </cell>
-          <cell r="AA61">
-            <v>4.1624034773977241E-2</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="H62">
-            <v>0.34194495688298948</v>
-          </cell>
-          <cell r="I62">
-            <v>0.20387036525942484</v>
-          </cell>
-          <cell r="J62">
-            <v>0.36702768233744465</v>
-          </cell>
-          <cell r="K62">
-            <v>0.52400741801104267</v>
-          </cell>
-          <cell r="M62">
-            <v>2.182627384359509E-2</v>
-          </cell>
-          <cell r="N62">
-            <v>5.7837420696191105E-2</v>
-          </cell>
-          <cell r="O62">
-            <v>4.3517823632851393E-2</v>
-          </cell>
-          <cell r="P62">
-            <v>3.9441418559970964E-2</v>
-          </cell>
-          <cell r="X62">
-            <v>2.0290779209896859E-2</v>
-          </cell>
-          <cell r="Y62">
-            <v>4.2291015463834743E-2</v>
-          </cell>
-          <cell r="Z62">
-            <v>4.4963042809842958E-2</v>
-          </cell>
-          <cell r="AA62">
-            <v>4.1317185394835157E-2</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="H63">
-            <v>0.32142825947001008</v>
-          </cell>
-          <cell r="I63">
-            <v>0.15738792198027599</v>
-          </cell>
-          <cell r="J63">
-            <v>0.32702166496266316</v>
-          </cell>
-          <cell r="K63">
-            <v>0.48208682457015928</v>
-          </cell>
-          <cell r="M63">
-            <v>2.0516697412979401E-2</v>
-          </cell>
-          <cell r="N63">
-            <v>4.6482443279148855E-2</v>
-          </cell>
-          <cell r="O63">
-            <v>4.0006017374781488E-2</v>
-          </cell>
-          <cell r="P63">
-            <v>4.1920593440883391E-2</v>
-          </cell>
-          <cell r="X63">
-            <v>1.9061423044441205E-2</v>
-          </cell>
-          <cell r="Y63">
-            <v>3.2409058550841773E-2</v>
-          </cell>
-          <cell r="Z63">
-            <v>4.228406604754293E-2</v>
-          </cell>
-          <cell r="AA63">
-            <v>4.0647206297089331E-2</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="H64">
-            <v>0.30214256390180944</v>
-          </cell>
-          <cell r="I64">
-            <v>0.12071653615887168</v>
-          </cell>
-          <cell r="J64">
-            <v>0.2903952384868449</v>
-          </cell>
-          <cell r="K64">
-            <v>0.44351987860454656</v>
-          </cell>
-          <cell r="M64">
-            <v>1.9285695568200645E-2</v>
-          </cell>
-          <cell r="N64">
-            <v>3.6671385821404306E-2</v>
-          </cell>
-          <cell r="O64">
-            <v>3.6626426475818263E-2</v>
-          </cell>
-          <cell r="P64">
-            <v>3.856694596561272E-2</v>
-          </cell>
-          <cell r="X64">
-            <v>1.7906549803761881E-2</v>
-          </cell>
-          <cell r="Y64">
-            <v>2.3693677274188696E-2</v>
-          </cell>
-          <cell r="Z64">
-            <v>3.9307471946126445E-2</v>
-          </cell>
-          <cell r="AA64">
-            <v>3.9644659113669906E-2</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="H65">
-            <v>0.28401401006770083</v>
-          </cell>
-          <cell r="I65">
-            <v>9.2106717089219095E-2</v>
-          </cell>
-          <cell r="J65">
-            <v>0.25699978606085772</v>
-          </cell>
-          <cell r="K65">
-            <v>0.40803828831618283</v>
-          </cell>
-          <cell r="M65">
-            <v>1.8128553834108607E-2</v>
-          </cell>
-          <cell r="N65">
-            <v>2.8609819069652584E-2</v>
-          </cell>
-          <cell r="O65">
-            <v>3.3395452425987182E-2</v>
-          </cell>
-          <cell r="P65">
-            <v>3.5481590288363729E-2</v>
-          </cell>
-          <cell r="X65">
-            <v>1.6821646795573991E-2</v>
-          </cell>
-          <cell r="Y65">
-            <v>1.6498021328838978E-2</v>
-          </cell>
-          <cell r="Z65">
-            <v>3.6128924604148856E-2</v>
-          </cell>
-          <cell r="AA65">
-            <v>3.83451186446973E-2</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="H66">
-            <v>0.26697316946363875</v>
-          </cell>
-          <cell r="I66">
-            <v>7.0001104987806512E-2</v>
-          </cell>
-          <cell r="J66">
-            <v>0.22693081109173738</v>
-          </cell>
-          <cell r="K66">
-            <v>0.37131484236772638</v>
-          </cell>
-          <cell r="M66">
-            <v>1.704084060406208E-2</v>
-          </cell>
-          <cell r="N66">
-            <v>2.2105612101412583E-2</v>
-          </cell>
-          <cell r="O66">
-            <v>3.0068974969120338E-2</v>
-          </cell>
-          <cell r="P66">
-            <v>3.6723445948456446E-2</v>
-          </cell>
-          <cell r="X66">
-            <v>1.5802474737796654E-2</v>
-          </cell>
-          <cell r="Y66">
-            <v>1.0922381288082463E-2</v>
-          </cell>
-          <cell r="Z66">
-            <v>3.2839949285262925E-2</v>
-          </cell>
-          <cell r="AA66">
-            <v>3.6787944117144235E-2</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="H67">
-            <v>0.25095477929582038</v>
-          </cell>
-          <cell r="I67">
-            <v>5.2990836475769527E-2</v>
-          </cell>
-          <cell r="J67">
-            <v>0.19969911376072888</v>
-          </cell>
-          <cell r="K67">
-            <v>0.33789650655463099</v>
-          </cell>
-          <cell r="M67">
-            <v>1.6018390167818364E-2</v>
-          </cell>
-          <cell r="N67">
-            <v>1.7010268512036984E-2</v>
-          </cell>
-          <cell r="O67">
-            <v>2.7231697331008498E-2</v>
-          </cell>
-          <cell r="P67">
-            <v>3.341833581309539E-2</v>
-          </cell>
-          <cell r="X67">
-            <v>1.4845051193466133E-2</v>
-          </cell>
-          <cell r="Y67">
-            <v>6.8630099229555945E-3</v>
-          </cell>
-          <cell r="Z67">
-            <v>2.952490700844429E-2</v>
-          </cell>
-          <cell r="AA67">
-            <v>3.5015010389058354E-2</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="H68">
-            <v>0.23589749253807116</v>
-          </cell>
-          <cell r="I68">
-            <v>4.0114063212157533E-2</v>
-          </cell>
-          <cell r="J68">
-            <v>0.17553552099568068</v>
-          </cell>
-          <cell r="K68">
-            <v>0.30748582096471422</v>
-          </cell>
-          <cell r="M68">
-            <v>1.5057286757749228E-2</v>
-          </cell>
-          <cell r="N68">
-            <v>1.2876773263611994E-2</v>
-          </cell>
-          <cell r="O68">
-            <v>2.4163592765048203E-2</v>
-          </cell>
-          <cell r="P68">
-            <v>3.0410685589916775E-2</v>
-          </cell>
-          <cell r="X68">
-            <v>1.3945635009276864E-2</v>
-          </cell>
-          <cell r="Y68">
-            <v>4.0853294135995118E-3</v>
-          </cell>
-          <cell r="Z68">
-            <v>2.6258631711310133E-2</v>
-          </cell>
-          <cell r="AA68">
-            <v>3.3069446714539166E-2</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="H69">
-            <v>0.22174364298578689</v>
-          </cell>
-          <cell r="I69">
-            <v>3.024600366196678E-2</v>
-          </cell>
-          <cell r="J69">
-            <v>0.15394465191321197</v>
-          </cell>
-          <cell r="K69">
-            <v>0.27673723886824281</v>
-          </cell>
-          <cell r="M69">
-            <v>1.415384955228427E-2</v>
-          </cell>
-          <cell r="N69">
-            <v>9.8680595501907525E-3</v>
-          </cell>
-          <cell r="O69">
-            <v>2.1590869082468711E-2</v>
-          </cell>
-          <cell r="P69">
-            <v>3.0748582096471411E-2</v>
-          </cell>
-          <cell r="X69">
-            <v>1.3100711696943613E-2</v>
-          </cell>
-          <cell r="Y69">
-            <v>2.2995311309239124E-3</v>
-          </cell>
-          <cell r="Z69">
-            <v>2.3104783057526831E-2</v>
-          </cell>
-          <cell r="AA69">
-            <v>3.0994427844228341E-2</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="H70">
-            <v>0.20843902440663967</v>
-          </cell>
-          <cell r="I70">
-            <v>2.2805486761122953E-2</v>
-          </cell>
-          <cell r="J70">
-            <v>0.13470157042406047</v>
-          </cell>
-          <cell r="K70">
-            <v>0.24906351498141854</v>
-          </cell>
-          <cell r="M70">
-            <v>1.330461857914722E-2</v>
-          </cell>
-          <cell r="N70">
-            <v>7.4405169008438278E-3</v>
-          </cell>
-          <cell r="O70">
-            <v>1.9243081489151492E-2</v>
-          </cell>
-          <cell r="P70">
-            <v>2.7673723886824264E-2</v>
-          </cell>
-          <cell r="X70">
-            <v>1.2306979700262129E-2</v>
-          </cell>
-          <cell r="Y70">
-            <v>1.221574794393629E-3</v>
-          </cell>
-          <cell r="Z70">
-            <v>2.0114918021138271E-2</v>
-          </cell>
-          <cell r="AA70">
-            <v>2.8832057345049768E-2</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="H71">
-            <v>0.19593268294224128</v>
-          </cell>
-          <cell r="I71">
-            <v>1.2930710993556712E-2</v>
-          </cell>
-          <cell r="J71">
-            <v>0.11786387412105291</v>
-          </cell>
-          <cell r="K71">
-            <v>0.22415716348327669</v>
-          </cell>
-          <cell r="M71">
-            <v>1.2506341464398385E-2</v>
-          </cell>
-          <cell r="N71">
-            <v>9.8747757675662403E-3</v>
-          </cell>
-          <cell r="O71">
-            <v>1.6837696303007563E-2</v>
-          </cell>
-          <cell r="P71">
-            <v>2.4906351498141854E-2</v>
-          </cell>
-          <cell r="X71">
-            <v>1.1561337494206517E-2</v>
-          </cell>
-          <cell r="Y71">
-            <v>6.1125830861754758E-4</v>
-          </cell>
-          <cell r="Z71">
-            <v>1.7328239747128764E-2</v>
-          </cell>
-          <cell r="AA71">
-            <v>2.6622376488884786E-2</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="H72">
-            <v>0.18417672196570681</v>
-          </cell>
-          <cell r="I72">
-            <v>9.7238946671546478E-3</v>
-          </cell>
-          <cell r="J72">
-            <v>0.1028951621076792</v>
-          </cell>
-          <cell r="K72">
-            <v>0.19949987550011625</v>
-          </cell>
-          <cell r="M72">
-            <v>1.1755960976534474E-2</v>
-          </cell>
-          <cell r="N72">
-            <v>3.2068163264020646E-3</v>
-          </cell>
-          <cell r="O72">
-            <v>1.4968712013373714E-2</v>
-          </cell>
-          <cell r="P72">
-            <v>2.4657287983160442E-2</v>
-          </cell>
-          <cell r="X72">
-            <v>1.0860871465652821E-2</v>
-          </cell>
-          <cell r="Y72">
-            <v>2.8753939534501016E-4</v>
-          </cell>
-          <cell r="Z72">
-            <v>1.4771945779795115E-2</v>
-          </cell>
-          <cell r="AA72">
-            <v>2.4402524354660626E-2</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="H73">
-            <v>0.17312611864776439</v>
-          </cell>
-          <cell r="I73">
-            <v>7.3123687897002953E-3</v>
-          </cell>
-          <cell r="J73">
-            <v>8.9724581357896266E-2</v>
-          </cell>
-          <cell r="K73">
-            <v>0.17755488919510345</v>
-          </cell>
-          <cell r="M73">
-            <v>1.1050603317942415E-2</v>
-          </cell>
-          <cell r="N73">
-            <v>2.4115258774543525E-3</v>
-          </cell>
-          <cell r="O73">
-            <v>1.3170580749782931E-2</v>
-          </cell>
-          <cell r="P73">
-            <v>2.1944986305012792E-2</v>
-          </cell>
-          <cell r="X73">
-            <v>1.02028445283724E-2</v>
-          </cell>
-          <cell r="Y73">
-            <v>1.2690299608237926E-4</v>
-          </cell>
-          <cell r="Z73">
-            <v>1.2462071433052863E-2</v>
-          </cell>
-          <cell r="AA73">
-            <v>2.2206066417273955E-2</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="H74">
-            <v>0.16273855152889852</v>
-          </cell>
-          <cell r="I74">
-            <v>5.4989013298546224E-3</v>
-          </cell>
-          <cell r="J74">
-            <v>7.8150110362727648E-2</v>
-          </cell>
-          <cell r="K74">
-            <v>0.15802385138364208</v>
-          </cell>
-          <cell r="M74">
-            <v>1.0387567118865876E-2</v>
-          </cell>
-          <cell r="N74">
-            <v>1.8134674598456729E-3</v>
-          </cell>
-          <cell r="O74">
-            <v>1.1574470995168618E-2</v>
-          </cell>
-          <cell r="P74">
-            <v>1.9531037811461371E-2</v>
-          </cell>
-          <cell r="X74">
-            <v>9.5846854278080294E-3</v>
-          </cell>
-          <cell r="Y74">
-            <v>5.2441353831737308E-5</v>
-          </cell>
-          <cell r="Z74">
-            <v>1.0404708606167559E-2</v>
-          </cell>
-          <cell r="AA74">
-            <v>2.0062500365297404E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="32">
-          <cell r="B32">
-            <v>18870109.548258711</v>
-          </cell>
-          <cell r="C32">
-            <v>18593992.807672229</v>
-          </cell>
-          <cell r="D32">
-            <v>18337728.694745239</v>
-          </cell>
-          <cell r="E32">
-            <v>18082597.529058583</v>
-          </cell>
-          <cell r="F32">
-            <v>17803624.361572664</v>
-          </cell>
-          <cell r="G32">
-            <v>17468409.190444432</v>
-          </cell>
-          <cell r="H32">
-            <v>17040163.457527727</v>
-          </cell>
-          <cell r="I32">
-            <v>16481642.621312289</v>
-          </cell>
-          <cell r="J32">
-            <v>15760507.505708352</v>
-          </cell>
-          <cell r="K32">
-            <v>14855068.260268211</v>
-          </cell>
-          <cell r="L32">
-            <v>13759713.377841802</v>
-          </cell>
-          <cell r="M32">
-            <v>12488320.744640674</v>
-          </cell>
-          <cell r="N32">
-            <v>11074962.736067271</v>
-          </cell>
-          <cell r="O32">
-            <v>9571328.9320450332</v>
-          </cell>
-          <cell r="P32">
-            <v>8040833.2655953383</v>
-          </cell>
-          <cell r="Q32">
-            <v>6550713.6238748562</v>
-          </cell>
-          <cell r="R32">
-            <v>5163432.432873317</v>
-          </cell>
-          <cell r="S32">
-            <v>3929042.8321901578</v>
-          </cell>
-          <cell r="T32">
-            <v>2880012.4869562169</v>
-          </cell>
-          <cell r="U32">
-            <v>2029257.470380231</v>
-          </cell>
-          <cell r="V32">
-            <v>1371486.8219852257</v>
-          </cell>
-          <cell r="W32">
-            <v>887294.67119109072</v>
-          </cell>
-          <cell r="X32">
-            <v>548329.39536737627</v>
-          </cell>
-          <cell r="Y32">
-            <v>322898.4234320175</v>
-          </cell>
-          <cell r="Z32">
-            <v>180778.24211751326</v>
-          </cell>
-          <cell r="AA32">
-            <v>95925.323418811269</v>
-          </cell>
-          <cell r="AB32">
-            <v>48045.592309494314</v>
-          </cell>
-          <cell r="AC32">
-            <v>22556.916879852732</v>
-          </cell>
-          <cell r="AD32">
-            <v>9768.3782647271764</v>
-          </cell>
-          <cell r="AE32">
-            <v>3746.1361262195514</v>
-          </cell>
-          <cell r="AF32">
-            <v>1098.1219492365792</v>
-          </cell>
-          <cell r="AG32">
-            <v>0</v>
-          </cell>
-          <cell r="AH32">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -13733,10 +11798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13908,6 +11973,16 @@
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -18688,7 +16763,7 @@
   <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18701,7 +16776,7 @@
         <v>33</v>
       </c>
       <c r="B1">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -18732,7 +16807,7 @@
       </c>
       <c r="B6">
         <f t="shared" ref="B6:B65" si="0">1/(1+EXP(B$2*(($A6)/B$1-1)))</f>
-        <v>0.99949979889292051</v>
+        <v>0.9996064858736734</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -18741,7 +16816,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>0.99925397116616332</v>
+        <v>0.99953823842347578</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -18750,7 +16825,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>0.99888746396713979</v>
+        <v>0.99945816118262265</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -18759,7 +16834,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>0.99834119891982553</v>
+        <v>0.99936420603160481</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -18768,7 +16843,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>0.99752737684336534</v>
+        <v>0.99925397116616332</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -18777,7 +16852,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>0.99631576010056411</v>
+        <v>0.99912464036357063</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -18786,7 +16861,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>0.99451370110054949</v>
+        <v>0.9989729119492885</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -18795,7 +16870,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>0.99183742884684012</v>
+        <v>0.99879491576622104</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -18804,7 +16879,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>0.98787156501572571</v>
+        <v>0.99858611618753934</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -18813,7 +16888,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>0.98201379003790845</v>
+        <v>0.99834119891982553</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -18822,7 +16897,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>0.97340300642313404</v>
+        <v>0.99805393901491435</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -18831,7 +16906,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>0.96083427720323566</v>
+        <v>0.997717047146497</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -18840,7 +16915,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>0.94267582410113127</v>
+        <v>0.99732199081378703</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -18849,7 +16924,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>0.91682730350607766</v>
+        <v>0.99685878671517059</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -18858,7 +16933,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>0.88079707797788231</v>
+        <v>0.99631576010056411</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -18867,7 +16942,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>0.83201838513392445</v>
+        <v>0.99567926648008809</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -18876,7 +16951,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>0.76852478349901776</v>
+        <v>0.99493337066653376</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -18885,7 +16960,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>0.6899744811276125</v>
+        <v>0.99405947780165971</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -18894,7 +16969,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>0.59868766011245211</v>
+        <v>0.99303591082223786</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -18903,7 +16978,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.99183742884684012</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -18912,7 +16987,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>0.40131233988754794</v>
+        <v>0.99043468132790835</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -18921,7 +16996,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>0.31002551887238738</v>
+        <v>0.98879359367815711</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -18930,7 +17005,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>0.23147521650098246</v>
+        <v>0.98687468166289716</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -18939,7 +17014,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>0.16798161486607557</v>
+        <v>0.98463229443472444</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -18948,7 +17023,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>0.11920292202211755</v>
+        <v>0.98201379003790845</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -18957,7 +17032,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>8.3172696493922352E-2</v>
+        <v>0.97895865297953166</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -18966,7 +17041,7 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>5.7324175898868707E-2</v>
+        <v>0.97539757159726048</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -18975,7 +17050,7 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>3.9165722796764384E-2</v>
+        <v>0.97125150407345995</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -18984,7 +17059,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>2.6596993576865863E-2</v>
+        <v>0.96643077671851751</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -18993,7 +17068,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>1.7986209962091559E-2</v>
+        <v>0.96083427720323566</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -19002,7 +17077,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>1.2128434984274237E-2</v>
+        <v>0.95434882921555619</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -19011,7 +17086,7 @@
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>8.1625711531598897E-3</v>
+        <v>0.94684886360193621</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -19020,7 +17095,7 @@
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>5.4862988994504088E-3</v>
+        <v>0.93819653373641143</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -19029,7 +17104,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>3.684239899435989E-3</v>
+        <v>0.92824245773624858</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -19038,7 +17113,7 @@
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>2.4726231566347743E-3</v>
+        <v>0.91682730350607766</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -19047,7 +17122,7 @@
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>1.6588010801744215E-3</v>
+        <v>0.9037844582893072</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -19056,7 +17131,7 @@
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>1.1125360328603205E-3</v>
+        <v>0.88894403328859239</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -19065,7 +17140,7 @@
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>7.4602883383669764E-4</v>
+        <v>0.8721384336809187</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -19074,7 +17149,7 @@
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>5.0020110707956432E-4</v>
+        <v>0.85320966019861766</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -19083,7 +17158,7 @@
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>3.3535013046647811E-4</v>
+        <v>0.83201838513392445</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -19092,7 +17167,7 @@
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>2.2481677023329571E-4</v>
+        <v>0.80845465143853257</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -19101,7 +17176,7 @@
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>1.5071035805975741E-4</v>
+        <v>0.78244977642311242</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -19110,7 +17185,7 @@
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>1.0102919390777289E-4</v>
+        <v>0.75398871644894816</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -19119,7 +17194,7 @@
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>6.7724149619770109E-5</v>
+        <v>0.72312180512438984</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -19128,7 +17203,7 @@
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>4.5397868702434395E-5</v>
+        <v>0.6899744811276125</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -19137,7 +17212,7 @@
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>3.043155690056538E-5</v>
+        <v>0.65475346060631912</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -19146,7 +17221,7 @@
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>2.039908727992137E-5</v>
+        <v>0.61774787476924908</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -19155,7 +17230,7 @@
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>1.3674009084599736E-5</v>
+        <v>0.5793242521487495</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -19164,7 +17239,7 @@
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>9.166003719853315E-6</v>
+        <v>0.53991488455556569</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -19173,7 +17248,7 @@
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>6.1441746022147182E-6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -19182,7 +17257,7 @@
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>4.1185717448326358E-6</v>
+        <v>0.46008511544443426</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -19191,7 +17266,7 @@
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>2.7607649501930464E-6</v>
+        <v>0.4206757478512505</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -19200,7 +17275,7 @@
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>1.8505977728634534E-6</v>
+        <v>0.38225212523075086</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -19209,7 +17284,7 @@
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>1.2404935411305767E-6</v>
+        <v>0.34524653939368066</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -19218,7 +17293,7 @@
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>8.3152802766413209E-7</v>
+        <v>0.31002551887238738</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -19227,7 +17302,7 @@
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>5.5739005858560998E-7</v>
+        <v>0.27687819487561</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -19236,7 +17311,7 @@
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>3.7362979838924758E-7</v>
+        <v>0.24601128355105206</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -19245,7 +17320,7 @@
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
-        <v>2.5045157450675526E-7</v>
+        <v>0.21755022357688761</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -19254,7 +17329,7 @@
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
-        <v>1.6788272481495197E-7</v>
+        <v>0.19154534856146757</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -19263,7 +17338,7 @@
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>1.1253516205509499E-7</v>
+        <v>0.16798161486607557</v>
       </c>
     </row>
   </sheetData>
@@ -19279,7 +17354,7 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
